--- a/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
+++ b/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jus3\Documents\Projects\state-eps-data-repository\NJ\indst\CtIEPpUESoS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/indst/ctieppuesos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D4A5FF-7F25-4BA4-8A98-C42F9033B2F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8A1BCA-847F-564D-BE4D-6EF20914D6CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
     <sheet name="CtIEPpUESoS" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -660,7 +671,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -735,6 +746,7 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1138,23 +1150,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="81.7265625" customWidth="1"/>
+    <col min="2" max="2" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="40">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1162,201 +1177,201 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" s="25"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
     </row>
-    <row r="33" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="25">
         <v>0.98699999999999999</v>
       </c>
@@ -1364,7 +1379,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="26">
         <v>1.0549999999999999</v>
       </c>
@@ -1372,7 +1387,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="25" t="s">
         <v>74</v>
       </c>
@@ -1394,20 +1409,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="28.54296875" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1415,22 +1430,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -1438,12 +1453,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1457,7 +1472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1472,7 +1487,7 @@
         <v>0.36555607695917408</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1487,7 +1502,7 @@
         <v>0.49267566948958574</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1502,7 +1517,7 @@
         <v>0.61937990072656646</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
@@ -1513,25 +1528,25 @@
         <v>0.49253721572510872</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <f>2.93*10^-4</f>
         <v>2.9300000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <f>D14*A17</f>
         <v>1.4431340420745687E-4</v>
@@ -1551,30 +1566,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.1796875" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="3" width="29.54296875" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" customWidth="1"/>
-    <col min="5" max="5" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1583,7 +1598,7 @@
         <v>2400000000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1592,83 +1607,83 @@
         <v>2300000000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>34</v>
       </c>
@@ -1677,7 +1692,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>64</v>
       </c>
@@ -1691,7 +1706,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -1710,7 +1725,7 @@
         <v>54807017543.85965</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1729,13 +1744,13 @@
         <v>12456140350.877192</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="5"/>
       <c r="C27" s="18"/>
       <c r="D27" s="22"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>54</v>
       </c>
@@ -1743,7 +1758,7 @@
       <c r="C28" s="18"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1754,7 +1769,7 @@
       <c r="C29" s="18"/>
       <c r="D29" s="22"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -1780,38 +1795,38 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="33.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
     </row>
-    <row r="6" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
         <v>86</v>
       </c>
@@ -1822,7 +1837,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>104</v>
       </c>
@@ -1833,7 +1848,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
         <v>106</v>
       </c>
@@ -1844,7 +1859,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>107</v>
       </c>
@@ -1856,7 +1871,7 @@
       </c>
       <c r="D10" s="38"/>
     </row>
-    <row r="11" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>120</v>
       </c>
@@ -1867,7 +1882,7 @@
         <v>6.3954140084752677E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>122</v>
       </c>
@@ -1878,13 +1893,13 @@
         <v>52.826854199999993</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
         <v>86</v>
       </c>
@@ -1898,7 +1913,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>81</v>
       </c>
@@ -1912,7 +1927,7 @@
         <v>87540</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
         <v>83</v>
       </c>
@@ -1926,7 +1941,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
         <v>84</v>
       </c>
@@ -1940,7 +1955,7 @@
         <v>3.3475000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
         <v>91</v>
       </c>
@@ -1954,7 +1969,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
         <v>93</v>
       </c>
@@ -1970,32 +1985,32 @@
         <v>17674.8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="25"/>
       <c r="C21" s="14"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <f>C16/(C20*10^6)</f>
         <v>3.047276348247222E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>102</v>
       </c>
@@ -2003,7 +2018,7 @@
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="s">
         <v>86</v>
       </c>
@@ -2015,7 +2030,7 @@
       </c>
       <c r="D30" s="25"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="31" t="s">
         <v>104</v>
       </c>
@@ -2027,7 +2042,7 @@
       </c>
       <c r="D31" s="25"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
         <v>106</v>
       </c>
@@ -2039,7 +2054,7 @@
       </c>
       <c r="D32" s="25"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
         <v>107</v>
       </c>
@@ -2051,7 +2066,7 @@
       </c>
       <c r="D33" s="25"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
         <v>109</v>
       </c>
@@ -2063,7 +2078,7 @@
       </c>
       <c r="D34" s="25"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="31" t="s">
         <v>110</v>
       </c>
@@ -2075,7 +2090,7 @@
       </c>
       <c r="D35" s="25"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="31" t="s">
         <v>111</v>
       </c>
@@ -2087,7 +2102,7 @@
       </c>
       <c r="D36" s="25"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="s">
         <v>112</v>
       </c>
@@ -2099,7 +2114,7 @@
       </c>
       <c r="D37" s="25"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
         <v>113</v>
       </c>
@@ -2111,13 +2126,13 @@
       </c>
       <c r="D38" s="25"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>85</v>
       </c>
@@ -2125,7 +2140,7 @@
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="30" t="s">
         <v>86</v>
       </c>
@@ -2139,7 +2154,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="31" t="s">
         <v>117</v>
       </c>
@@ -2153,7 +2168,7 @@
         <v>87540</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
         <v>118</v>
       </c>
@@ -2168,7 +2183,7 @@
         <v>87540</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
         <v>119</v>
       </c>
@@ -2183,7 +2198,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="31" t="s">
         <v>84</v>
       </c>
@@ -2197,7 +2212,7 @@
         <v>3.3475000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="31" t="s">
         <v>91</v>
       </c>
@@ -2211,7 +2226,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="31" t="s">
         <v>93</v>
       </c>
@@ -2227,12 +2242,12 @@
         <v>17674.8</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
         <f>AVERAGE(C43:D43)/(AVERAGE(C47:D47)*10^6)</f>
         <v>6.1910177201439334E-6</v>
@@ -2255,13 +2270,13 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.1796875" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" customWidth="1"/>
+    <col min="1" max="1" width="36.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -2365,7 +2380,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2502,7 +2517,7 @@
         <v>1.4243732995275992E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2638,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2775,7 +2790,7 @@
         <v>2.4092251461988303E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -2912,7 +2927,7 @@
         <v>5.7135774218154072E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -3049,7 +3064,7 @@
         <v>4.8732001210763347E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>

--- a/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
+++ b/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/indst/ctieppuesos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/indst/ctieppuesos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8A1BCA-847F-564D-BE4D-6EF20914D6CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF503CF9-AFA9-FA48-A697-C4052A0453DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
